--- a/totaalstand_EAL1_EAL8.xlsx
+++ b/totaalstand_EAL1_EAL8.xlsx
@@ -524,7 +524,7 @@
         <v>28</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -561,7 +561,7 @@
         <v>19</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">

--- a/totaalstand_EAL1_EAL8.xlsx
+++ b/totaalstand_EAL1_EAL8.xlsx
@@ -524,7 +524,7 @@
         <v>28</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -561,7 +561,7 @@
         <v>19</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -644,11 +644,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Biagio VDS</t>
+          <t>Roy Droog</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -657,16 +657,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>6181</v>
+        <v>6984</v>
       </c>
       <c r="H6" t="n">
-        <v>269</v>
+        <v>410</v>
       </c>
       <c r="I6" t="n">
-        <v>68.93000000000001</v>
+        <v>51.1</v>
       </c>
       <c r="J6" t="n">
         <v>13</v>
@@ -677,11 +677,11 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ewan Taylor</t>
+          <t>Biagio VDS</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -694,19 +694,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>6391</v>
+        <v>6181</v>
       </c>
       <c r="H7" t="n">
-        <v>337</v>
+        <v>269</v>
       </c>
       <c r="I7" t="n">
-        <v>56.89</v>
+        <v>68.93000000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -714,11 +714,11 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>wessel de Haas</t>
+          <t>Ewan Taylor</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -734,13 +734,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>9005</v>
+        <v>6391</v>
       </c>
       <c r="H8" t="n">
-        <v>558</v>
+        <v>337</v>
       </c>
       <c r="I8" t="n">
-        <v>48.41</v>
+        <v>56.89</v>
       </c>
       <c r="J8" t="n">
         <v>11</v>
@@ -751,15 +751,15 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Robin Willis</t>
+          <t>wessel de Haas</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -771,16 +771,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>4671</v>
+        <v>9005</v>
       </c>
       <c r="H9" t="n">
-        <v>279</v>
+        <v>558</v>
       </c>
       <c r="I9" t="n">
-        <v>50.23</v>
+        <v>48.41</v>
       </c>
       <c r="J9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -788,15 +788,15 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Roy Droog</t>
+          <t>Robin Willis</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -805,16 +805,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>6984</v>
+        <v>4671</v>
       </c>
       <c r="H10" t="n">
-        <v>410</v>
+        <v>279</v>
       </c>
       <c r="I10" t="n">
-        <v>51.1</v>
+        <v>50.23</v>
       </c>
       <c r="J10" t="n">
         <v>10</v>

--- a/totaalstand_EAL1_EAL8.xlsx
+++ b/totaalstand_EAL1_EAL8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,11 +496,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kai 123</t>
+          <t>Jaco _16</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -512,19 +512,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>19934</v>
+        <v>27944</v>
       </c>
       <c r="H2" t="n">
-        <v>872</v>
+        <v>1217</v>
       </c>
       <c r="I2" t="n">
-        <v>68.58</v>
+        <v>68.88</v>
       </c>
       <c r="J2" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -533,11 +533,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jaco _16</t>
+          <t>Kai 123</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -549,16 +549,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>15363</v>
+        <v>19934</v>
       </c>
       <c r="H3" t="n">
-        <v>662</v>
+        <v>872</v>
       </c>
       <c r="I3" t="n">
-        <v>69.62</v>
+        <v>68.58</v>
       </c>
       <c r="J3" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -570,11 +570,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vycka</t>
+          <t>Louis Tweddle</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -583,19 +583,19 @@
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>17978</v>
+        <v>21529</v>
       </c>
       <c r="H4" t="n">
-        <v>901</v>
+        <v>1087</v>
       </c>
       <c r="I4" t="n">
-        <v>59.86</v>
+        <v>59.42</v>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -603,36 +603,36 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Richie Ijzermans</t>
+          <t>vycka</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>9771</v>
+        <v>21763</v>
       </c>
       <c r="H5" t="n">
-        <v>458</v>
+        <v>1067</v>
       </c>
       <c r="I5" t="n">
-        <v>64</v>
+        <v>61.19</v>
       </c>
       <c r="J5" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -644,14 +644,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Louis Tweddle</t>
+          <t>Thomas Maidment</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -660,19 +660,19 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>16689</v>
+        <v>16829</v>
       </c>
       <c r="H6" t="n">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="I6" t="n">
-        <v>58.08</v>
+        <v>58.64</v>
       </c>
       <c r="J6" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -681,32 +681,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mathijs Van Egteren</t>
+          <t>Richie Ijzermans</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>12294</v>
+        <v>9771</v>
       </c>
       <c r="H7" t="n">
-        <v>643</v>
+        <v>458</v>
       </c>
       <c r="I7" t="n">
-        <v>57.36</v>
+        <v>64</v>
       </c>
       <c r="J7" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -718,35 +718,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Thomas Maidment</t>
+          <t>Nick Fitzpatrick</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>9664</v>
+        <v>14467</v>
       </c>
       <c r="H8" t="n">
-        <v>473</v>
+        <v>679</v>
       </c>
       <c r="I8" t="n">
-        <v>61.29</v>
+        <v>63.92</v>
       </c>
       <c r="J8" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -755,32 +755,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Troy Davies</t>
+          <t>Mathijs Van Egteren</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>10563</v>
+        <v>12294</v>
       </c>
       <c r="H9" t="n">
-        <v>488</v>
+        <v>643</v>
       </c>
       <c r="I9" t="n">
-        <v>64.94</v>
+        <v>57.36</v>
       </c>
       <c r="J9" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -792,32 +792,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rocky Van Den Eeckhoudt</t>
+          <t>Robin Willis</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>11316</v>
+        <v>11261</v>
       </c>
       <c r="H10" t="n">
-        <v>613</v>
+        <v>698</v>
       </c>
       <c r="I10" t="n">
-        <v>55.38</v>
+        <v>48.4</v>
       </c>
       <c r="J10" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -825,15 +825,15 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Robin Willis</t>
+          <t>Yannick den Daggelder</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -845,16 +845,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>9391</v>
+        <v>12629</v>
       </c>
       <c r="H11" t="n">
-        <v>568</v>
+        <v>743</v>
       </c>
       <c r="I11" t="n">
-        <v>49.6</v>
+        <v>50.99</v>
       </c>
       <c r="J11" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -866,11 +866,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Yannick den Daggelder</t>
+          <t>Ronald Kelly</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -882,16 +882,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>10332</v>
+        <v>11793</v>
       </c>
       <c r="H12" t="n">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="I12" t="n">
-        <v>50.24</v>
+        <v>56.07</v>
       </c>
       <c r="J12" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -899,36 +899,36 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Biagio VDS</t>
+          <t>Troy Davies</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>9043</v>
+        <v>10563</v>
       </c>
       <c r="H13" t="n">
-        <v>398</v>
+        <v>488</v>
       </c>
       <c r="I13" t="n">
-        <v>68.16</v>
+        <v>64.94</v>
       </c>
       <c r="J13" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -940,32 +940,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Luke Fry</t>
+          <t>Dan Roussel</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>1</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
-        <v>7519</v>
+        <v>9346</v>
       </c>
       <c r="H14" t="n">
-        <v>450</v>
+        <v>532</v>
       </c>
       <c r="I14" t="n">
-        <v>50.13</v>
+        <v>52.7</v>
       </c>
       <c r="J14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -977,32 +977,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ben Roberts</t>
+          <t>Arnold Van Der Vlies</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>7705</v>
+        <v>10535</v>
       </c>
       <c r="H15" t="n">
-        <v>437</v>
+        <v>629</v>
       </c>
       <c r="I15" t="n">
-        <v>52.89</v>
+        <v>50.25</v>
       </c>
       <c r="J15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1010,36 +1010,36 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Coekie Sr</t>
+          <t>Rocky Van Den Eeckhoudt</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>8589</v>
+        <v>11316</v>
       </c>
       <c r="H16" t="n">
-        <v>478</v>
+        <v>613</v>
       </c>
       <c r="I16" t="n">
-        <v>53.91</v>
+        <v>55.38</v>
       </c>
       <c r="J16" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1047,15 +1047,15 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Roy Droog</t>
+          <t>Biagio VDS</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1064,19 +1064,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>6984</v>
+        <v>9043</v>
       </c>
       <c r="H17" t="n">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="I17" t="n">
-        <v>51.1</v>
+        <v>68.16</v>
       </c>
       <c r="J17" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1088,32 +1088,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>John Rey Mendez</t>
+          <t>Luke Fry</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>8727</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>50.45</v>
       </c>
       <c r="J18" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1125,32 +1125,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Martin Gordon</t>
+          <t>Steve Deavs</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>6625</v>
+        <v>5470</v>
       </c>
       <c r="H19" t="n">
-        <v>429</v>
+        <v>348</v>
       </c>
       <c r="I19" t="n">
-        <v>46.33</v>
+        <v>47.16</v>
       </c>
       <c r="J19" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1162,11 +1162,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>wessel de Haas</t>
+          <t>Diego Meerveld</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>10873</v>
+        <v>10847</v>
       </c>
       <c r="H20" t="n">
-        <v>668</v>
+        <v>596</v>
       </c>
       <c r="I20" t="n">
-        <v>48.83</v>
+        <v>54.6</v>
       </c>
       <c r="J20" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1199,32 +1199,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Steve Deavs</t>
+          <t>Ben Roberts</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>4479</v>
+        <v>7705</v>
       </c>
       <c r="H21" t="n">
-        <v>276</v>
+        <v>437</v>
       </c>
       <c r="I21" t="n">
-        <v>48.68</v>
+        <v>52.89</v>
       </c>
       <c r="J21" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1236,11 +1236,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ewan Taylor</t>
+          <t>Coekie Sr</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1252,16 +1252,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>6391</v>
+        <v>8589</v>
       </c>
       <c r="H22" t="n">
-        <v>337</v>
+        <v>478</v>
       </c>
       <c r="I22" t="n">
-        <v>56.89</v>
+        <v>53.91</v>
       </c>
       <c r="J22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1269,15 +1269,15 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Dávid Martin Kilian</t>
+          <t>Roy Droog</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>1776</v>
+        <v>6984</v>
       </c>
       <c r="H23" t="n">
-        <v>92</v>
+        <v>410</v>
       </c>
       <c r="I23" t="n">
-        <v>57.91</v>
+        <v>51.1</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1306,15 +1306,15 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ronald Kelly</t>
+          <t>John Rey Mendez</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1326,16 +1326,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>5272</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>56.49</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1343,15 +1343,15 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>wesley Danen</t>
+          <t>Martin Gordon</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1363,16 +1363,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>3915</v>
+        <v>7906</v>
       </c>
       <c r="H25" t="n">
-        <v>265</v>
+        <v>501</v>
       </c>
       <c r="I25" t="n">
-        <v>44.32</v>
+        <v>47.34</v>
       </c>
       <c r="J25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1380,36 +1380,36 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Arnold Van Der Vlies</t>
+          <t>wessel de Haas</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6813</v>
+        <v>12264</v>
       </c>
       <c r="H26" t="n">
-        <v>406</v>
+        <v>755</v>
       </c>
       <c r="I26" t="n">
-        <v>50.34</v>
+        <v>48.73</v>
       </c>
       <c r="J26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1417,15 +1417,15 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Dan Roussel</t>
+          <t>Ewan Taylor</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1434,19 +1434,19 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>5157</v>
+        <v>6391</v>
       </c>
       <c r="H27" t="n">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="I27" t="n">
-        <v>50.72</v>
+        <v>56.89</v>
       </c>
       <c r="J27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -1454,15 +1454,15 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Jayden Pieters</t>
+          <t>Steve Harris</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1474,16 +1474,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>4380</v>
+        <v>3301</v>
       </c>
       <c r="H28" t="n">
-        <v>314</v>
+        <v>207</v>
       </c>
       <c r="I28" t="n">
-        <v>41.85</v>
+        <v>47.84</v>
       </c>
       <c r="J28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -1491,36 +1491,36 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Lorenz Linkesch</t>
+          <t>Jack Davies</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3236</v>
+        <v>7007</v>
       </c>
       <c r="H29" t="n">
-        <v>178</v>
+        <v>368</v>
       </c>
       <c r="I29" t="n">
-        <v>54.54</v>
+        <v>57.12</v>
       </c>
       <c r="J29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -1532,11 +1532,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Steve Harris</t>
+          <t>Dávid Martin Kilian</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1548,16 +1548,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2311</v>
+        <v>1776</v>
       </c>
       <c r="H30" t="n">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="I30" t="n">
-        <v>47.16</v>
+        <v>57.91</v>
       </c>
       <c r="J30" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -1569,32 +1569,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Djo Descan</t>
+          <t>wesley Danen</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>3772</v>
+        <v>3915</v>
       </c>
       <c r="H31" t="n">
-        <v>203</v>
+        <v>265</v>
       </c>
       <c r="I31" t="n">
-        <v>55.74</v>
+        <v>44.32</v>
       </c>
       <c r="J31" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -1606,11 +1606,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Jack Davies</t>
+          <t>Mick Woo</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1619,19 +1619,19 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>4248</v>
+        <v>6760</v>
       </c>
       <c r="H32" t="n">
-        <v>224</v>
+        <v>340</v>
       </c>
       <c r="I32" t="n">
-        <v>56.89</v>
+        <v>59.65</v>
       </c>
       <c r="J32" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -1639,36 +1639,36 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mick Woo</t>
+          <t>Jayden Pieters</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>5220</v>
+        <v>4380</v>
       </c>
       <c r="H33" t="n">
-        <v>253</v>
+        <v>314</v>
       </c>
       <c r="I33" t="n">
-        <v>61.9</v>
+        <v>41.85</v>
       </c>
       <c r="J33" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -1676,15 +1676,15 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Diego Meerveld</t>
+          <t>Judben Cabs</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1696,16 +1696,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>5444</v>
+        <v>2273</v>
       </c>
       <c r="H34" t="n">
-        <v>327</v>
+        <v>153</v>
       </c>
       <c r="I34" t="n">
-        <v>49.94</v>
+        <v>44.57</v>
       </c>
       <c r="J34" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -1713,15 +1713,15 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Jimmy Verdier</t>
+          <t>Lorenz Linkesch</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6325</v>
+        <v>3236</v>
       </c>
       <c r="H35" t="n">
-        <v>324</v>
+        <v>178</v>
       </c>
       <c r="I35" t="n">
-        <v>58.56</v>
+        <v>54.54</v>
       </c>
       <c r="J35" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -1750,11 +1750,11 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Kevin Verbruggen</t>
+          <t>Djo Descan</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1764,22 +1764,22 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>5014</v>
+        <v>3772</v>
       </c>
       <c r="H36" t="n">
-        <v>329</v>
+        <v>203</v>
       </c>
       <c r="I36" t="n">
-        <v>45.72</v>
+        <v>55.74</v>
       </c>
       <c r="J36" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -1787,11 +1787,11 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Tommy Ollerenshaw</t>
+          <t>Jimmy Verdier</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1807,13 +1807,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1841</v>
+        <v>6325</v>
       </c>
       <c r="H37" t="n">
-        <v>132</v>
+        <v>324</v>
       </c>
       <c r="I37" t="n">
-        <v>41.84</v>
+        <v>58.56</v>
       </c>
       <c r="J37" t="n">
         <v>7</v>
@@ -1824,33 +1824,33 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Noah B</t>
+          <t>Kevin Verbruggen</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3816</v>
+        <v>5014</v>
       </c>
       <c r="H38" t="n">
-        <v>218</v>
+        <v>329</v>
       </c>
       <c r="I38" t="n">
-        <v>52.51</v>
+        <v>45.72</v>
       </c>
       <c r="J38" t="n">
         <v>7</v>
@@ -1861,15 +1861,15 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Erwin Theunis</t>
+          <t>Tommy Ollerenshaw</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -1881,16 +1881,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>4866</v>
+        <v>1841</v>
       </c>
       <c r="H39" t="n">
-        <v>251</v>
+        <v>132</v>
       </c>
       <c r="I39" t="n">
-        <v>58.16</v>
+        <v>41.84</v>
       </c>
       <c r="J39" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -1898,11 +1898,11 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Judben Cabs</t>
+          <t>Noah B</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1912,22 +1912,22 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1029</v>
+        <v>3816</v>
       </c>
       <c r="H40" t="n">
-        <v>63</v>
+        <v>218</v>
       </c>
       <c r="I40" t="n">
-        <v>49</v>
+        <v>52.51</v>
       </c>
       <c r="J40" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -1935,11 +1935,11 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Koert Senden</t>
+          <t>Erwin Theunis</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1955,13 +1955,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4484</v>
+        <v>4866</v>
       </c>
       <c r="H41" t="n">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="I41" t="n">
-        <v>50.76</v>
+        <v>58.16</v>
       </c>
       <c r="J41" t="n">
         <v>6</v>
@@ -1972,11 +1972,11 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Niels van Dommelen</t>
+          <t>Koert Senden</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1992,13 +1992,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>4292</v>
+        <v>4484</v>
       </c>
       <c r="H42" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="I42" t="n">
-        <v>49.52</v>
+        <v>50.76</v>
       </c>
       <c r="J42" t="n">
         <v>6</v>
@@ -2009,15 +2009,15 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ben Klerks</t>
+          <t>Niels van Dommelen</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -2029,16 +2029,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2479</v>
+        <v>4292</v>
       </c>
       <c r="H43" t="n">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="I43" t="n">
-        <v>42.99</v>
+        <v>49.52</v>
       </c>
       <c r="J43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -2046,11 +2046,11 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Fredrik P</t>
+          <t>Ben Klerks</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -2066,13 +2066,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2346</v>
+        <v>2479</v>
       </c>
       <c r="H44" t="n">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="I44" t="n">
-        <v>48.21</v>
+        <v>42.99</v>
       </c>
       <c r="J44" t="n">
         <v>5</v>
@@ -2083,11 +2083,11 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Maarten Tack</t>
+          <t>Fredrik P</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -2103,13 +2103,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>3244</v>
+        <v>2346</v>
       </c>
       <c r="H45" t="n">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="I45" t="n">
-        <v>47.01</v>
+        <v>48.21</v>
       </c>
       <c r="J45" t="n">
         <v>5</v>
@@ -2120,18 +2120,18 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Nick Fitzpatrick</t>
+          <t>Maarten Tack</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -2140,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>3419</v>
+        <v>3244</v>
       </c>
       <c r="H46" t="n">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="I46" t="n">
-        <v>61.42</v>
+        <v>47.01</v>
       </c>
       <c r="J46" t="n">
         <v>5</v>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>lander Windels</t>
+          <t>Tristan Snoep</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2658,13 +2658,13 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1298</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>49.92</v>
       </c>
       <c r="J60" t="n">
         <v>3</v>
@@ -2675,15 +2675,15 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Constantinos Mavroudis</t>
+          <t>lander Windels</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -2695,16 +2695,16 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>1681</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>37.36</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
@@ -2716,11 +2716,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Blanko B</t>
+          <t>Constantinos Mavroudis</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -2732,16 +2732,16 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>2561</v>
+        <v>1681</v>
       </c>
       <c r="H62" t="n">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="I62" t="n">
-        <v>51.22</v>
+        <v>37.36</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -2749,11 +2749,11 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Burger Peach</t>
+          <t>Blanko B</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>1115</v>
+        <v>2561</v>
       </c>
       <c r="H63" t="n">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="I63" t="n">
-        <v>46.46</v>
+        <v>51.22</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -2786,11 +2786,11 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Kristof De Smedt 🇧🇪</t>
+          <t>Burger Peach</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>1340</v>
+        <v>1115</v>
       </c>
       <c r="H64" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I64" t="n">
-        <v>58.26</v>
+        <v>46.46</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -2823,11 +2823,11 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Max Van Gasse</t>
+          <t>Kristof De Smedt 🇧🇪</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -2843,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>903</v>
+        <v>1340</v>
       </c>
       <c r="H65" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I65" t="n">
-        <v>41.05</v>
+        <v>58.26</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -2860,11 +2860,11 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Michel Buurmeijer</t>
+          <t>Max Van Gasse</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -2880,13 +2880,13 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="H66" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="I66" t="n">
-        <v>50.94</v>
+        <v>41.05</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -2897,11 +2897,11 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Roosje L</t>
+          <t>Michel Buurmeijer</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -2917,13 +2917,13 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>1237</v>
+        <v>917</v>
       </c>
       <c r="H67" t="n">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="I67" t="n">
-        <v>38.66</v>
+        <v>50.94</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -2934,11 +2934,11 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Solly Aouimeur</t>
+          <t>Roosje L</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -2954,13 +2954,13 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>1041</v>
+        <v>1237</v>
       </c>
       <c r="H68" t="n">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="I68" t="n">
-        <v>43.38</v>
+        <v>38.66</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -2971,38 +2971,75 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>Solly Aouimeur</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1041</v>
+      </c>
+      <c r="H69" t="n">
+        <v>72</v>
+      </c>
+      <c r="I69" t="n">
+        <v>43.38</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>62</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
           <t>zakaria L</t>
         </is>
       </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
         <v>1251</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H70" t="n">
         <v>78</v>
       </c>
-      <c r="I69" t="n">
+      <c r="I70" t="n">
         <v>48.12</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="n">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
         <v>0</v>
       </c>
     </row>

--- a/totaalstand_EAL1_EAL8.xlsx
+++ b/totaalstand_EAL1_EAL8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,35 +533,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kai 123</t>
+          <t>vycka</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>19934</v>
+        <v>25270</v>
       </c>
       <c r="H3" t="n">
-        <v>872</v>
+        <v>1228</v>
       </c>
       <c r="I3" t="n">
-        <v>68.58</v>
+        <v>61.73</v>
       </c>
       <c r="J3" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -570,44 +570,44 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Louis Tweddle</t>
+          <t>Kai 123</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>19934</v>
+      </c>
+      <c r="H4" t="n">
+        <v>872</v>
+      </c>
+      <c r="I4" t="n">
+        <v>68.58</v>
+      </c>
+      <c r="J4" t="n">
+        <v>40</v>
+      </c>
+      <c r="K4" t="n">
         <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>21529</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1087</v>
-      </c>
-      <c r="I4" t="n">
-        <v>59.42</v>
-      </c>
-      <c r="J4" t="n">
-        <v>36</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vycka</t>
+          <t>Louis Tweddle</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -623,13 +623,13 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>21763</v>
+        <v>21529</v>
       </c>
       <c r="H5" t="n">
-        <v>1067</v>
+        <v>1087</v>
       </c>
       <c r="I5" t="n">
-        <v>61.19</v>
+        <v>59.42</v>
       </c>
       <c r="J5" t="n">
         <v>36</v>
@@ -681,29 +681,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Richie Ijzermans</t>
+          <t>Yannick den Daggelder</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>9771</v>
+        <v>17599</v>
       </c>
       <c r="H7" t="n">
-        <v>458</v>
+        <v>1042</v>
       </c>
       <c r="I7" t="n">
-        <v>64</v>
+        <v>50.67</v>
       </c>
       <c r="J7" t="n">
         <v>28</v>
@@ -714,36 +714,36 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nick Fitzpatrick</t>
+          <t>Richie Ijzermans</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>14467</v>
+        <v>9771</v>
       </c>
       <c r="H8" t="n">
-        <v>679</v>
+        <v>458</v>
       </c>
       <c r="I8" t="n">
-        <v>63.92</v>
+        <v>64</v>
       </c>
       <c r="J8" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -751,36 +751,36 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mathijs Van Egteren</t>
+          <t>Robin Willis</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>12294</v>
+        <v>13858</v>
       </c>
       <c r="H9" t="n">
-        <v>643</v>
+        <v>872</v>
       </c>
       <c r="I9" t="n">
-        <v>57.36</v>
+        <v>47.68</v>
       </c>
       <c r="J9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -792,14 +792,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Robin Willis</t>
+          <t>Nick Fitzpatrick</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -808,16 +808,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>11261</v>
+        <v>14467</v>
       </c>
       <c r="H10" t="n">
-        <v>698</v>
+        <v>679</v>
       </c>
       <c r="I10" t="n">
-        <v>48.4</v>
+        <v>63.92</v>
       </c>
       <c r="J10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -829,11 +829,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Yannick den Daggelder</t>
+          <t>Ronald Kelly</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -845,16 +845,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>12629</v>
+        <v>15989</v>
       </c>
       <c r="H11" t="n">
-        <v>743</v>
+        <v>850</v>
       </c>
       <c r="I11" t="n">
-        <v>50.99</v>
+        <v>56.43</v>
       </c>
       <c r="J11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -862,11 +862,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ronald Kelly</t>
+          <t>Mathijs Van Egteren</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -876,22 +876,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>11793</v>
+        <v>12294</v>
       </c>
       <c r="H12" t="n">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="I12" t="n">
-        <v>56.07</v>
+        <v>57.36</v>
       </c>
       <c r="J12" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -903,32 +903,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Troy Davies</t>
+          <t>Steve Deavs</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>10563</v>
+        <v>9816</v>
       </c>
       <c r="H13" t="n">
-        <v>488</v>
+        <v>634</v>
       </c>
       <c r="I13" t="n">
-        <v>64.94</v>
+        <v>46.45</v>
       </c>
       <c r="J13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -936,15 +936,15 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Dan Roussel</t>
+          <t>wessel de Haas</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -956,16 +956,16 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>9346</v>
+        <v>18124</v>
       </c>
       <c r="H14" t="n">
-        <v>532</v>
+        <v>1127</v>
       </c>
       <c r="I14" t="n">
-        <v>52.7</v>
+        <v>48.24</v>
       </c>
       <c r="J14" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -973,36 +973,36 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Arnold Van Der Vlies</t>
+          <t>Dan Roussel</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>10535</v>
+        <v>11646</v>
       </c>
       <c r="H15" t="n">
-        <v>629</v>
+        <v>659</v>
       </c>
       <c r="I15" t="n">
-        <v>50.25</v>
+        <v>53.02</v>
       </c>
       <c r="J15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1010,11 +1010,11 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Rocky Van Den Eeckhoudt</t>
+          <t>Troy Davies</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1024,22 +1024,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>11316</v>
+        <v>10563</v>
       </c>
       <c r="H16" t="n">
-        <v>613</v>
+        <v>488</v>
       </c>
       <c r="I16" t="n">
-        <v>55.38</v>
+        <v>64.94</v>
       </c>
       <c r="J16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1051,11 +1051,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Biagio VDS</t>
+          <t>Martin Gordon</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1064,19 +1064,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>9043</v>
+        <v>13566</v>
       </c>
       <c r="H17" t="n">
-        <v>398</v>
+        <v>794</v>
       </c>
       <c r="I17" t="n">
-        <v>68.16</v>
+        <v>51.26</v>
       </c>
       <c r="J17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1084,52 +1084,52 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Nico van Assche</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Luke Fry</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>14</v>
-      </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>1</v>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
       <c r="G18" t="n">
-        <v>8727</v>
+        <v>11287</v>
       </c>
       <c r="H18" t="n">
-        <v>519</v>
+        <v>635</v>
       </c>
       <c r="I18" t="n">
-        <v>50.45</v>
+        <v>53.32</v>
       </c>
       <c r="J18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Steve Deavs</t>
+          <t>Arnold Van Der Vlies</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1138,19 +1138,19 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>5470</v>
+        <v>10535</v>
       </c>
       <c r="H19" t="n">
-        <v>348</v>
+        <v>629</v>
       </c>
       <c r="I19" t="n">
-        <v>47.16</v>
+        <v>50.25</v>
       </c>
       <c r="J19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1158,36 +1158,36 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Diego Meerveld</t>
+          <t>Rocky Van Den Eeckhoudt</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>10847</v>
+        <v>11316</v>
       </c>
       <c r="H20" t="n">
-        <v>596</v>
+        <v>613</v>
       </c>
       <c r="I20" t="n">
-        <v>54.6</v>
+        <v>55.38</v>
       </c>
       <c r="J20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1195,15 +1195,15 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ben Roberts</t>
+          <t>Bergvern Bergado</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1215,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>7705</v>
+        <v>7845</v>
       </c>
       <c r="H21" t="n">
-        <v>437</v>
+        <v>359</v>
       </c>
       <c r="I21" t="n">
-        <v>52.89</v>
+        <v>65.56</v>
       </c>
       <c r="J21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1236,32 +1236,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Coekie Sr</t>
+          <t>Noah B</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>8589</v>
+        <v>10875</v>
       </c>
       <c r="H22" t="n">
-        <v>478</v>
+        <v>640</v>
       </c>
       <c r="I22" t="n">
-        <v>53.91</v>
+        <v>50.98</v>
       </c>
       <c r="J22" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1273,11 +1273,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Roy Droog</t>
+          <t>Biagio VDS</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>6984</v>
+        <v>9043</v>
       </c>
       <c r="H23" t="n">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="I23" t="n">
-        <v>51.1</v>
+        <v>68.16</v>
       </c>
       <c r="J23" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1310,32 +1310,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>John Rey Mendez</t>
+          <t>Luke Fry</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>8727</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>50.45</v>
       </c>
       <c r="J24" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1347,11 +1347,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Martin Gordon</t>
+          <t>Diego Meerveld</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1360,19 +1360,19 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>7906</v>
+        <v>10847</v>
       </c>
       <c r="H25" t="n">
-        <v>501</v>
+        <v>596</v>
       </c>
       <c r="I25" t="n">
-        <v>47.34</v>
+        <v>54.6</v>
       </c>
       <c r="J25" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1384,32 +1384,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>wessel de Haas</t>
+          <t>Ben Roberts</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>12264</v>
+        <v>7705</v>
       </c>
       <c r="H26" t="n">
-        <v>755</v>
+        <v>437</v>
       </c>
       <c r="I26" t="n">
-        <v>48.73</v>
+        <v>52.89</v>
       </c>
       <c r="J26" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1421,11 +1421,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ewan Taylor</t>
+          <t>Coekie Sr</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1437,16 +1437,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>6391</v>
+        <v>8589</v>
       </c>
       <c r="H27" t="n">
-        <v>337</v>
+        <v>478</v>
       </c>
       <c r="I27" t="n">
-        <v>56.89</v>
+        <v>53.91</v>
       </c>
       <c r="J27" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -1458,11 +1458,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Steve Harris</t>
+          <t>Roy Droog</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1471,19 +1471,19 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>3301</v>
+        <v>6984</v>
       </c>
       <c r="H28" t="n">
-        <v>207</v>
+        <v>410</v>
       </c>
       <c r="I28" t="n">
-        <v>47.84</v>
+        <v>51.1</v>
       </c>
       <c r="J28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -1491,36 +1491,36 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Jack Davies</t>
+          <t>John Rey Mendez</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>7007</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>368</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>57.12</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -1532,11 +1532,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dávid Martin Kilian</t>
+          <t>Ewan Taylor</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1548,16 +1548,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1776</v>
+        <v>6391</v>
       </c>
       <c r="H30" t="n">
-        <v>92</v>
+        <v>337</v>
       </c>
       <c r="I30" t="n">
-        <v>57.91</v>
+        <v>56.89</v>
       </c>
       <c r="J30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -1569,11 +1569,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>wesley Danen</t>
+          <t>Steve Harris</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>3915</v>
+        <v>4401</v>
       </c>
       <c r="H31" t="n">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="I31" t="n">
-        <v>44.32</v>
+        <v>45.84</v>
       </c>
       <c r="J31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -1606,11 +1606,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Mick Woo</t>
+          <t>Jack Davies</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1619,19 +1619,19 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>6760</v>
+        <v>7007</v>
       </c>
       <c r="H32" t="n">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="I32" t="n">
-        <v>59.65</v>
+        <v>57.12</v>
       </c>
       <c r="J32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -1643,11 +1643,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Jayden Pieters</t>
+          <t>Blanko B</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1659,16 +1659,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>4380</v>
+        <v>8056</v>
       </c>
       <c r="H33" t="n">
-        <v>314</v>
+        <v>446</v>
       </c>
       <c r="I33" t="n">
-        <v>41.85</v>
+        <v>54.19</v>
       </c>
       <c r="J33" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -1680,11 +1680,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Judben Cabs</t>
+          <t>Dávid Martin Kilian</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1696,16 +1696,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2273</v>
+        <v>1776</v>
       </c>
       <c r="H34" t="n">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="I34" t="n">
-        <v>44.57</v>
+        <v>57.91</v>
       </c>
       <c r="J34" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -1717,11 +1717,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Lorenz Linkesch</t>
+          <t>wesley Danen</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3236</v>
+        <v>3915</v>
       </c>
       <c r="H35" t="n">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="I35" t="n">
-        <v>54.54</v>
+        <v>44.32</v>
       </c>
       <c r="J35" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -1750,15 +1750,15 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Djo Descan</t>
+          <t>Mick Woo</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -1767,19 +1767,19 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>3772</v>
+        <v>6760</v>
       </c>
       <c r="H36" t="n">
-        <v>203</v>
+        <v>340</v>
       </c>
       <c r="I36" t="n">
-        <v>55.74</v>
+        <v>59.65</v>
       </c>
       <c r="J36" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -1791,11 +1791,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Jimmy Verdier</t>
+          <t>Jayden Pieters</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -1807,16 +1807,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>6325</v>
+        <v>4380</v>
       </c>
       <c r="H37" t="n">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="I37" t="n">
-        <v>58.56</v>
+        <v>41.85</v>
       </c>
       <c r="J37" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -1828,11 +1828,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Kevin Verbruggen</t>
+          <t>Judben Cabs</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -1844,16 +1844,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5014</v>
+        <v>2273</v>
       </c>
       <c r="H38" t="n">
-        <v>329</v>
+        <v>153</v>
       </c>
       <c r="I38" t="n">
-        <v>45.72</v>
+        <v>44.57</v>
       </c>
       <c r="J38" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -1865,11 +1865,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Tommy Ollerenshaw</t>
+          <t>Lorenz Linkesch</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -1881,16 +1881,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1841</v>
+        <v>3236</v>
       </c>
       <c r="H39" t="n">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="I39" t="n">
-        <v>41.84</v>
+        <v>54.54</v>
       </c>
       <c r="J39" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -1902,32 +1902,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Noah B</t>
+          <t>Niels van Dommelen</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>3816</v>
+        <v>4292</v>
       </c>
       <c r="H40" t="n">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="I40" t="n">
-        <v>52.51</v>
+        <v>49.52</v>
       </c>
       <c r="J40" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -1939,32 +1939,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Erwin Theunis</t>
+          <t>Djo Descan</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4866</v>
+        <v>3772</v>
       </c>
       <c r="H41" t="n">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="I41" t="n">
-        <v>58.16</v>
+        <v>55.74</v>
       </c>
       <c r="J41" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -1972,15 +1972,15 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Koert Senden</t>
+          <t>Jimmy Verdier</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1992,16 +1992,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>4484</v>
+        <v>6325</v>
       </c>
       <c r="H42" t="n">
-        <v>265</v>
+        <v>324</v>
       </c>
       <c r="I42" t="n">
-        <v>50.76</v>
+        <v>58.56</v>
       </c>
       <c r="J42" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -2009,15 +2009,15 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Niels van Dommelen</t>
+          <t>Kevin Verbruggen</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -2029,16 +2029,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>4292</v>
+        <v>5014</v>
       </c>
       <c r="H43" t="n">
-        <v>260</v>
+        <v>329</v>
       </c>
       <c r="I43" t="n">
-        <v>49.52</v>
+        <v>45.72</v>
       </c>
       <c r="J43" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -2046,15 +2046,15 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ben Klerks</t>
+          <t>Tommy Ollerenshaw</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -2066,16 +2066,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2479</v>
+        <v>1841</v>
       </c>
       <c r="H44" t="n">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="I44" t="n">
-        <v>42.99</v>
+        <v>41.84</v>
       </c>
       <c r="J44" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -2083,15 +2083,15 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Fredrik P</t>
+          <t>Erwin Theunis</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -2103,16 +2103,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2346</v>
+        <v>4866</v>
       </c>
       <c r="H45" t="n">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="I45" t="n">
-        <v>48.21</v>
+        <v>58.16</v>
       </c>
       <c r="J45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -2120,15 +2120,15 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Maarten Tack</t>
+          <t>Koert Senden</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>3244</v>
+        <v>4484</v>
       </c>
       <c r="H46" t="n">
-        <v>207</v>
+        <v>265</v>
       </c>
       <c r="I46" t="n">
-        <v>47.01</v>
+        <v>50.76</v>
       </c>
       <c r="J46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -2157,11 +2157,11 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>simon Banks</t>
+          <t>Ben Klerks</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2177,13 +2177,13 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>3799</v>
+        <v>2479</v>
       </c>
       <c r="H47" t="n">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="I47" t="n">
-        <v>49.55</v>
+        <v>42.99</v>
       </c>
       <c r="J47" t="n">
         <v>5</v>
@@ -2194,33 +2194,33 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Joel P</t>
+          <t>Fredrik P</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>3376</v>
+        <v>2346</v>
       </c>
       <c r="H48" t="n">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="I48" t="n">
-        <v>59.58</v>
+        <v>48.21</v>
       </c>
       <c r="J48" t="n">
         <v>5</v>
@@ -2231,15 +2231,15 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Nico van Assche</t>
+          <t>Maarten Tack</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>3291</v>
+        <v>3244</v>
       </c>
       <c r="H49" t="n">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="I49" t="n">
-        <v>51.96</v>
+        <v>47.01</v>
       </c>
       <c r="J49" t="n">
         <v>5</v>
@@ -2268,15 +2268,15 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>James Denton</t>
+          <t>simon Banks</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -2288,16 +2288,16 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>1704</v>
+        <v>3799</v>
       </c>
       <c r="H50" t="n">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="I50" t="n">
-        <v>58.09</v>
+        <v>49.55</v>
       </c>
       <c r="J50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -2305,11 +2305,11 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Rudi Tolleneer</t>
+          <t>Joel P</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -2319,22 +2319,22 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1745</v>
+        <v>3376</v>
       </c>
       <c r="H51" t="n">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="I51" t="n">
-        <v>48.03</v>
+        <v>59.58</v>
       </c>
       <c r="J51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -2342,11 +2342,11 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Thomas Hillman</t>
+          <t>James Denton</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -2362,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>4136</v>
+        <v>1704</v>
       </c>
       <c r="H52" t="n">
-        <v>231</v>
+        <v>88</v>
       </c>
       <c r="I52" t="n">
-        <v>53.71</v>
+        <v>58.09</v>
       </c>
       <c r="J52" t="n">
         <v>4</v>
@@ -2379,15 +2379,15 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Aelbrecht Wesley</t>
+          <t>Rudi Tolleneer</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -2399,16 +2399,16 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1231</v>
+        <v>1745</v>
       </c>
       <c r="H53" t="n">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="I53" t="n">
-        <v>39.71</v>
+        <v>48.03</v>
       </c>
       <c r="J53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -2416,15 +2416,15 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>David Wallam</t>
+          <t>Thomas Hillman</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -2436,16 +2436,16 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>1299</v>
+        <v>4136</v>
       </c>
       <c r="H54" t="n">
-        <v>108</v>
+        <v>231</v>
       </c>
       <c r="I54" t="n">
-        <v>36.08</v>
+        <v>53.71</v>
       </c>
       <c r="J54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -2453,11 +2453,11 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Kai Schubert</t>
+          <t>Aelbrecht Wesley</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -2473,13 +2473,13 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>1170</v>
+        <v>1231</v>
       </c>
       <c r="H55" t="n">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="I55" t="n">
-        <v>55.71</v>
+        <v>39.71</v>
       </c>
       <c r="J55" t="n">
         <v>3</v>
@@ -2490,11 +2490,11 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Levi Giethoorn</t>
+          <t>David Wallam</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -2510,13 +2510,13 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>1299</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>36.08</v>
       </c>
       <c r="J56" t="n">
         <v>3</v>
@@ -2527,11 +2527,11 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Martijn Joostema</t>
+          <t>Kai Schubert</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -2547,13 +2547,13 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>1305</v>
+        <v>1170</v>
       </c>
       <c r="H57" t="n">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="I57" t="n">
-        <v>52.2</v>
+        <v>55.71</v>
       </c>
       <c r="J57" t="n">
         <v>3</v>
@@ -2564,11 +2564,11 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Robbert Taal</t>
+          <t>Levi Giethoorn</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -2584,13 +2584,13 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>1970</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>46.17</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
         <v>3</v>
@@ -2601,11 +2601,11 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Toerist G</t>
+          <t>Martijn Joostema</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -2621,13 +2621,13 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>1293</v>
+        <v>1305</v>
       </c>
       <c r="H59" t="n">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="I59" t="n">
-        <v>36.94</v>
+        <v>52.2</v>
       </c>
       <c r="J59" t="n">
         <v>3</v>
@@ -2638,11 +2638,11 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Tristan Snoep</t>
+          <t>Robbert Taal</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2658,13 +2658,13 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>1298</v>
+        <v>1970</v>
       </c>
       <c r="H60" t="n">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="I60" t="n">
-        <v>49.92</v>
+        <v>46.17</v>
       </c>
       <c r="J60" t="n">
         <v>3</v>
@@ -2675,11 +2675,11 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>lander Windels</t>
+          <t>Toerist G</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -2695,13 +2695,13 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1293</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>36.94</v>
       </c>
       <c r="J61" t="n">
         <v>3</v>
@@ -2712,15 +2712,15 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Constantinos Mavroudis</t>
+          <t>Tristan Snoep</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -2732,16 +2732,16 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>1681</v>
+        <v>1298</v>
       </c>
       <c r="H62" t="n">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="I62" t="n">
-        <v>37.36</v>
+        <v>49.92</v>
       </c>
       <c r="J62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -2749,15 +2749,15 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Blanko B</t>
+          <t>lander Windels</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>2561</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>51.22</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -2786,15 +2786,15 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Burger Peach</t>
+          <t>Constantinos Mavroudis</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -2806,16 +2806,16 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>1115</v>
+        <v>1681</v>
       </c>
       <c r="H64" t="n">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="I64" t="n">
-        <v>46.46</v>
+        <v>37.36</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
@@ -2823,11 +2823,11 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Kristof De Smedt 🇧🇪</t>
+          <t>Burger Peach</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -2843,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1340</v>
+        <v>1115</v>
       </c>
       <c r="H65" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I65" t="n">
-        <v>58.26</v>
+        <v>46.46</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -2860,11 +2860,11 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Max Van Gasse</t>
+          <t>Kristof De Smedt 🇧🇪</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -2880,13 +2880,13 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>903</v>
+        <v>1340</v>
       </c>
       <c r="H66" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I66" t="n">
-        <v>41.05</v>
+        <v>58.26</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -2897,11 +2897,11 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Michel Buurmeijer</t>
+          <t>Max Van Gasse</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -2917,13 +2917,13 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="H67" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="I67" t="n">
-        <v>50.94</v>
+        <v>41.05</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -2934,11 +2934,11 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Roosje L</t>
+          <t>Michel Buurmeijer</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -2954,13 +2954,13 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>1237</v>
+        <v>917</v>
       </c>
       <c r="H68" t="n">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="I68" t="n">
-        <v>38.66</v>
+        <v>50.94</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -2971,11 +2971,11 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Solly Aouimeur</t>
+          <t>Roosje L</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -2991,13 +2991,13 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>1041</v>
+        <v>1237</v>
       </c>
       <c r="H69" t="n">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="I69" t="n">
-        <v>43.38</v>
+        <v>38.66</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -3008,38 +3008,75 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>Solly Aouimeur</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1041</v>
+      </c>
+      <c r="H70" t="n">
+        <v>72</v>
+      </c>
+      <c r="I70" t="n">
+        <v>43.38</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>64</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
           <t>zakaria L</t>
         </is>
       </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
         <v>1251</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H71" t="n">
         <v>78</v>
       </c>
-      <c r="I70" t="n">
+      <c r="I71" t="n">
         <v>48.12</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="n">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
         <v>0</v>
       </c>
     </row>

--- a/totaalstand_EAL1_EAL8.xlsx
+++ b/totaalstand_EAL1_EAL8.xlsx
@@ -672,7 +672,7 @@
         <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -746,7 +746,7 @@
         <v>28</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">

--- a/totaalstand_EAL1_EAL8.xlsx
+++ b/totaalstand_EAL1_EAL8.xlsx
@@ -496,11 +496,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jaco _16</t>
+          <t>vycka</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -509,22 +509,22 @@
         <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>27944</v>
+        <v>35892</v>
       </c>
       <c r="H2" t="n">
-        <v>1217</v>
+        <v>1770</v>
       </c>
       <c r="I2" t="n">
-        <v>68.88</v>
+        <v>60.83</v>
       </c>
       <c r="J2" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -533,35 +533,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vycka</t>
+          <t>Jaco _16</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>27944</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1217</v>
+      </c>
+      <c r="I3" t="n">
+        <v>68.88</v>
+      </c>
+      <c r="J3" t="n">
+        <v>52</v>
+      </c>
+      <c r="K3" t="n">
         <v>2</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>25270</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1228</v>
-      </c>
-      <c r="I3" t="n">
-        <v>61.73</v>
-      </c>
-      <c r="J3" t="n">
-        <v>43</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -644,35 +644,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Thomas Maidment</t>
+          <t>Travisberg Bergado</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>16829</v>
+        <v>16725</v>
       </c>
       <c r="H6" t="n">
-        <v>861</v>
+        <v>757</v>
       </c>
       <c r="I6" t="n">
-        <v>58.64</v>
+        <v>66.28</v>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -681,32 +681,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Yannick den Daggelder</t>
+          <t>Thomas Maidment</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>28</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>17599</v>
+        <v>16829</v>
       </c>
       <c r="H7" t="n">
-        <v>1042</v>
+        <v>861</v>
       </c>
       <c r="I7" t="n">
-        <v>50.67</v>
+        <v>58.64</v>
       </c>
       <c r="J7" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -714,39 +714,39 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Richie Ijzermans</t>
+          <t>Martin Gordon</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>9771</v>
+        <v>21522</v>
       </c>
       <c r="H8" t="n">
-        <v>458</v>
+        <v>1227</v>
       </c>
       <c r="I8" t="n">
-        <v>64</v>
+        <v>52.62</v>
       </c>
       <c r="J8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -755,11 +755,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Robin Willis</t>
+          <t>Yannick den Daggelder</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -771,16 +771,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>13858</v>
+        <v>17599</v>
       </c>
       <c r="H9" t="n">
-        <v>872</v>
+        <v>1042</v>
       </c>
       <c r="I9" t="n">
-        <v>47.68</v>
+        <v>50.67</v>
       </c>
       <c r="J9" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -788,73 +788,73 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nick Fitzpatrick</t>
+          <t>Richie Ijzermans</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>14467</v>
+        <v>9771</v>
       </c>
       <c r="H10" t="n">
-        <v>679</v>
+        <v>458</v>
       </c>
       <c r="I10" t="n">
-        <v>63.92</v>
+        <v>64</v>
       </c>
       <c r="J10" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ronald Kelly</t>
+          <t>Rocky Van Den Eeckhoudt</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>15989</v>
+        <v>18938</v>
       </c>
       <c r="H11" t="n">
-        <v>850</v>
+        <v>1016</v>
       </c>
       <c r="I11" t="n">
-        <v>56.43</v>
+        <v>55.92</v>
       </c>
       <c r="J11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -862,36 +862,36 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mathijs Van Egteren</t>
+          <t>Robin Willis</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>12294</v>
+        <v>13858</v>
       </c>
       <c r="H12" t="n">
-        <v>643</v>
+        <v>872</v>
       </c>
       <c r="I12" t="n">
-        <v>57.36</v>
+        <v>47.68</v>
       </c>
       <c r="J12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -903,32 +903,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Steve Deavs</t>
+          <t>Nick Fitzpatrick</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>9816</v>
+        <v>14467</v>
       </c>
       <c r="H13" t="n">
-        <v>634</v>
+        <v>679</v>
       </c>
       <c r="I13" t="n">
-        <v>46.45</v>
+        <v>63.92</v>
       </c>
       <c r="J13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -940,11 +940,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>wessel de Haas</t>
+          <t>Ronald Kelly</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -953,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>18124</v>
+        <v>17238</v>
       </c>
       <c r="H14" t="n">
-        <v>1127</v>
+        <v>949</v>
       </c>
       <c r="I14" t="n">
-        <v>48.24</v>
+        <v>54.49</v>
       </c>
       <c r="J14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -973,15 +973,15 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Dan Roussel</t>
+          <t>wessel de Haas</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -993,16 +993,16 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>11646</v>
+        <v>20501</v>
       </c>
       <c r="H15" t="n">
-        <v>659</v>
+        <v>1260</v>
       </c>
       <c r="I15" t="n">
-        <v>53.02</v>
+        <v>48.81</v>
       </c>
       <c r="J15" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1010,36 +1010,36 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Troy Davies</t>
+          <t>Mathijs Van Egteren</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>10563</v>
+        <v>12294</v>
       </c>
       <c r="H16" t="n">
-        <v>488</v>
+        <v>643</v>
       </c>
       <c r="I16" t="n">
-        <v>64.94</v>
+        <v>57.36</v>
       </c>
       <c r="J16" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1051,32 +1051,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Martin Gordon</t>
+          <t>Steve Deavs</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>13566</v>
+        <v>11105</v>
       </c>
       <c r="H17" t="n">
-        <v>794</v>
+        <v>724</v>
       </c>
       <c r="I17" t="n">
-        <v>51.26</v>
+        <v>46.02</v>
       </c>
       <c r="J17" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1084,15 +1084,15 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nico van Assche</t>
+          <t>Dan Roussel</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1104,28 +1104,28 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>11287</v>
+        <v>11646</v>
       </c>
       <c r="H18" t="n">
-        <v>635</v>
+        <v>659</v>
       </c>
       <c r="I18" t="n">
-        <v>53.32</v>
+        <v>53.02</v>
       </c>
       <c r="J18" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Arnold Van Der Vlies</t>
+          <t>Jack Davies</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1135,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>10535</v>
+        <v>11884</v>
       </c>
       <c r="H19" t="n">
-        <v>629</v>
+        <v>600</v>
       </c>
       <c r="I19" t="n">
-        <v>50.25</v>
+        <v>59.42</v>
       </c>
       <c r="J19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1158,11 +1158,11 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Rocky Van Den Eeckhoudt</t>
+          <t>Troy Davies</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1172,22 +1172,22 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>11316</v>
+        <v>10563</v>
       </c>
       <c r="H20" t="n">
-        <v>613</v>
+        <v>488</v>
       </c>
       <c r="I20" t="n">
-        <v>55.38</v>
+        <v>64.94</v>
       </c>
       <c r="J20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1199,106 +1199,106 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bergvern Bergado</t>
+          <t>Noah B</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>7845</v>
+        <v>13049</v>
       </c>
       <c r="H21" t="n">
-        <v>359</v>
+        <v>782</v>
       </c>
       <c r="I21" t="n">
-        <v>65.56</v>
+        <v>50.06</v>
       </c>
       <c r="J21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Noah B</t>
+          <t>Nico van Assche</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>1</v>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
       <c r="G22" t="n">
-        <v>10875</v>
+        <v>11287</v>
       </c>
       <c r="H22" t="n">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="I22" t="n">
-        <v>50.98</v>
+        <v>53.32</v>
       </c>
       <c r="J22" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Biagio VDS</t>
+          <t>Arnold Van Der Vlies</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>9043</v>
+        <v>11817</v>
       </c>
       <c r="H23" t="n">
-        <v>398</v>
+        <v>716</v>
       </c>
       <c r="I23" t="n">
-        <v>68.16</v>
+        <v>49.51</v>
       </c>
       <c r="J23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1310,32 +1310,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Luke Fry</t>
+          <t>Roy Droog</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>1</v>
       </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
       <c r="G24" t="n">
-        <v>8727</v>
+        <v>8025</v>
       </c>
       <c r="H24" t="n">
-        <v>519</v>
+        <v>464</v>
       </c>
       <c r="I24" t="n">
-        <v>50.45</v>
+        <v>51.89</v>
       </c>
       <c r="J24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Diego Meerveld</t>
+          <t>Biagio VDS</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1360,19 +1360,19 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>10847</v>
+        <v>9043</v>
       </c>
       <c r="H25" t="n">
-        <v>596</v>
+        <v>398</v>
       </c>
       <c r="I25" t="n">
-        <v>54.6</v>
+        <v>68.16</v>
       </c>
       <c r="J25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1380,33 +1380,33 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ben Roberts</t>
+          <t>Luke Fry</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>7705</v>
+        <v>8727</v>
       </c>
       <c r="H26" t="n">
-        <v>437</v>
+        <v>519</v>
       </c>
       <c r="I26" t="n">
-        <v>52.89</v>
+        <v>50.45</v>
       </c>
       <c r="J26" t="n">
         <v>15</v>
@@ -1417,15 +1417,15 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Coekie Sr</t>
+          <t>Diego Meerveld</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1434,19 +1434,19 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>8589</v>
+        <v>10847</v>
       </c>
       <c r="H27" t="n">
-        <v>478</v>
+        <v>596</v>
       </c>
       <c r="I27" t="n">
-        <v>53.91</v>
+        <v>54.6</v>
       </c>
       <c r="J27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -1454,36 +1454,36 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Roy Droog</t>
+          <t>Ben Roberts</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>6984</v>
+        <v>7705</v>
       </c>
       <c r="H28" t="n">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="I28" t="n">
-        <v>51.1</v>
+        <v>52.89</v>
       </c>
       <c r="J28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -1491,36 +1491,36 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>John Rey Mendez</t>
+          <t>Mick Woo</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>11082</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>58.95</v>
       </c>
       <c r="J29" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -1532,11 +1532,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ewan Taylor</t>
+          <t>Coekie Sr</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1548,16 +1548,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>6391</v>
+        <v>8589</v>
       </c>
       <c r="H30" t="n">
-        <v>337</v>
+        <v>478</v>
       </c>
       <c r="I30" t="n">
-        <v>56.89</v>
+        <v>53.91</v>
       </c>
       <c r="J30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -1565,15 +1565,15 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Steve Harris</t>
+          <t>John Rey Mendez</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>4401</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>45.84</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -1602,33 +1602,33 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Jack Davies</t>
+          <t>Ewan Taylor</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>7007</v>
+        <v>6391</v>
       </c>
       <c r="H32" t="n">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="I32" t="n">
-        <v>57.12</v>
+        <v>56.89</v>
       </c>
       <c r="J32" t="n">
         <v>11</v>
@@ -1639,15 +1639,15 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Blanko B</t>
+          <t>Steve Harris</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1659,16 +1659,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>8056</v>
+        <v>4401</v>
       </c>
       <c r="H33" t="n">
-        <v>446</v>
+        <v>288</v>
       </c>
       <c r="I33" t="n">
-        <v>54.19</v>
+        <v>45.84</v>
       </c>
       <c r="J33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -1676,36 +1676,36 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Dávid Martin Kilian</t>
+          <t>Djo Descan</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1776</v>
+        <v>5920</v>
       </c>
       <c r="H34" t="n">
-        <v>92</v>
+        <v>298</v>
       </c>
       <c r="I34" t="n">
-        <v>57.91</v>
+        <v>59.6</v>
       </c>
       <c r="J34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -1713,11 +1713,11 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>wesley Danen</t>
+          <t>Blanko B</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3915</v>
+        <v>8056</v>
       </c>
       <c r="H35" t="n">
-        <v>265</v>
+        <v>446</v>
       </c>
       <c r="I35" t="n">
-        <v>44.32</v>
+        <v>54.19</v>
       </c>
       <c r="J35" t="n">
         <v>10</v>
@@ -1750,33 +1750,33 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mick Woo</t>
+          <t>Dávid Martin Kilian</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>6760</v>
+        <v>1776</v>
       </c>
       <c r="H36" t="n">
-        <v>340</v>
+        <v>92</v>
       </c>
       <c r="I36" t="n">
-        <v>59.65</v>
+        <v>57.91</v>
       </c>
       <c r="J36" t="n">
         <v>10</v>
@@ -1787,15 +1787,15 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Jayden Pieters</t>
+          <t>wesley Danen</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -1807,16 +1807,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>4380</v>
+        <v>3915</v>
       </c>
       <c r="H37" t="n">
-        <v>314</v>
+        <v>265</v>
       </c>
       <c r="I37" t="n">
-        <v>41.85</v>
+        <v>44.32</v>
       </c>
       <c r="J37" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -1824,11 +1824,11 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Judben Cabs</t>
+          <t>Jayden Pieters</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1844,13 +1844,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2273</v>
+        <v>4380</v>
       </c>
       <c r="H38" t="n">
-        <v>153</v>
+        <v>314</v>
       </c>
       <c r="I38" t="n">
-        <v>44.57</v>
+        <v>41.85</v>
       </c>
       <c r="J38" t="n">
         <v>9</v>
@@ -1861,11 +1861,11 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Lorenz Linkesch</t>
+          <t>Judben Cabs</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1881,13 +1881,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>3236</v>
+        <v>2273</v>
       </c>
       <c r="H39" t="n">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="I39" t="n">
-        <v>54.54</v>
+        <v>44.57</v>
       </c>
       <c r="J39" t="n">
         <v>9</v>
@@ -1898,11 +1898,11 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Niels van Dommelen</t>
+          <t>Lorenz Linkesch</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1918,13 +1918,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>4292</v>
+        <v>3236</v>
       </c>
       <c r="H40" t="n">
-        <v>260</v>
+        <v>178</v>
       </c>
       <c r="I40" t="n">
-        <v>49.52</v>
+        <v>54.54</v>
       </c>
       <c r="J40" t="n">
         <v>9</v>
@@ -1935,36 +1935,36 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Djo Descan</t>
+          <t>Niels van Dommelen</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3772</v>
+        <v>5010</v>
       </c>
       <c r="H41" t="n">
-        <v>203</v>
+        <v>320</v>
       </c>
       <c r="I41" t="n">
-        <v>55.74</v>
+        <v>46.97</v>
       </c>
       <c r="J41" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -2083,11 +2083,11 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Erwin Theunis</t>
+          <t>Kristof De Smedt 🇧🇪</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -2097,22 +2097,22 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>4866</v>
+        <v>6956</v>
       </c>
       <c r="H45" t="n">
-        <v>251</v>
+        <v>399</v>
       </c>
       <c r="I45" t="n">
-        <v>58.16</v>
+        <v>52.3</v>
       </c>
       <c r="J45" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -2120,11 +2120,11 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Koert Senden</t>
+          <t>Erwin Theunis</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -2140,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>4484</v>
+        <v>4866</v>
       </c>
       <c r="H46" t="n">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="I46" t="n">
-        <v>50.76</v>
+        <v>58.16</v>
       </c>
       <c r="J46" t="n">
         <v>6</v>
@@ -2157,15 +2157,15 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Ben Klerks</t>
+          <t>Koert Senden</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -2177,16 +2177,16 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>2479</v>
+        <v>4484</v>
       </c>
       <c r="H47" t="n">
-        <v>173</v>
+        <v>265</v>
       </c>
       <c r="I47" t="n">
-        <v>42.99</v>
+        <v>50.76</v>
       </c>
       <c r="J47" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
@@ -2194,11 +2194,11 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Fredrik P</t>
+          <t>Ben Klerks</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -2214,13 +2214,13 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>2346</v>
+        <v>2479</v>
       </c>
       <c r="H48" t="n">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="I48" t="n">
-        <v>48.21</v>
+        <v>42.99</v>
       </c>
       <c r="J48" t="n">
         <v>5</v>
@@ -2231,11 +2231,11 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Maarten Tack</t>
+          <t>Fredrik P</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>3244</v>
+        <v>2346</v>
       </c>
       <c r="H49" t="n">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="I49" t="n">
-        <v>47.01</v>
+        <v>48.21</v>
       </c>
       <c r="J49" t="n">
         <v>5</v>
@@ -2268,11 +2268,11 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>simon Banks</t>
+          <t>Maarten Tack</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2288,13 +2288,13 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>3799</v>
+        <v>3244</v>
       </c>
       <c r="H50" t="n">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="I50" t="n">
-        <v>49.55</v>
+        <v>47.01</v>
       </c>
       <c r="J50" t="n">
         <v>5</v>
@@ -2305,33 +2305,33 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Joel P</t>
+          <t>simon Banks</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>3376</v>
+        <v>3799</v>
       </c>
       <c r="H51" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="I51" t="n">
-        <v>59.58</v>
+        <v>49.55</v>
       </c>
       <c r="J51" t="n">
         <v>5</v>
@@ -2342,11 +2342,11 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>James Denton</t>
+          <t>Joel P</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -2356,22 +2356,22 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>1704</v>
+        <v>3376</v>
       </c>
       <c r="H52" t="n">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="I52" t="n">
-        <v>58.09</v>
+        <v>59.58</v>
       </c>
       <c r="J52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -2379,11 +2379,11 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Rudi Tolleneer</t>
+          <t>James Denton</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -2399,13 +2399,13 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1745</v>
+        <v>1704</v>
       </c>
       <c r="H53" t="n">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="I53" t="n">
-        <v>48.03</v>
+        <v>58.09</v>
       </c>
       <c r="J53" t="n">
         <v>4</v>
@@ -2416,11 +2416,11 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Thomas Hillman</t>
+          <t>Rudi Tolleneer</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2436,13 +2436,13 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>4136</v>
+        <v>1745</v>
       </c>
       <c r="H54" t="n">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c r="I54" t="n">
-        <v>53.71</v>
+        <v>48.03</v>
       </c>
       <c r="J54" t="n">
         <v>4</v>
@@ -2453,15 +2453,15 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Aelbrecht Wesley</t>
+          <t>Thomas Hillman</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -2473,16 +2473,16 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>1231</v>
+        <v>4136</v>
       </c>
       <c r="H55" t="n">
-        <v>93</v>
+        <v>231</v>
       </c>
       <c r="I55" t="n">
-        <v>39.71</v>
+        <v>53.71</v>
       </c>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -2490,11 +2490,11 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>David Wallam</t>
+          <t>Aelbrecht Wesley</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -2510,13 +2510,13 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>1299</v>
+        <v>1231</v>
       </c>
       <c r="H56" t="n">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I56" t="n">
-        <v>36.08</v>
+        <v>39.71</v>
       </c>
       <c r="J56" t="n">
         <v>3</v>
@@ -2527,11 +2527,11 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Kai Schubert</t>
+          <t>David Wallam</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -2547,13 +2547,13 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>1170</v>
+        <v>1299</v>
       </c>
       <c r="H57" t="n">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="I57" t="n">
-        <v>55.71</v>
+        <v>36.08</v>
       </c>
       <c r="J57" t="n">
         <v>3</v>
@@ -2564,11 +2564,11 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Levi Giethoorn</t>
+          <t>Kai Schubert</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -2584,13 +2584,13 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1170</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>55.71</v>
       </c>
       <c r="J58" t="n">
         <v>3</v>
@@ -2601,11 +2601,11 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Martijn Joostema</t>
+          <t>Levi Giethoorn</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -2621,13 +2621,13 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>1305</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
         <v>3</v>
@@ -2638,11 +2638,11 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Robbert Taal</t>
+          <t>Martijn Joostema</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2658,13 +2658,13 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>1970</v>
+        <v>1305</v>
       </c>
       <c r="H60" t="n">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="I60" t="n">
-        <v>46.17</v>
+        <v>52.2</v>
       </c>
       <c r="J60" t="n">
         <v>3</v>
@@ -2675,11 +2675,11 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Toerist G</t>
+          <t>Robbert Taal</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -2695,13 +2695,13 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>1293</v>
+        <v>1970</v>
       </c>
       <c r="H61" t="n">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="I61" t="n">
-        <v>36.94</v>
+        <v>46.17</v>
       </c>
       <c r="J61" t="n">
         <v>3</v>
@@ -2712,11 +2712,11 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Tristan Snoep</t>
+          <t>Toerist G</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -2732,13 +2732,13 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="H62" t="n">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="I62" t="n">
-        <v>49.92</v>
+        <v>36.94</v>
       </c>
       <c r="J62" t="n">
         <v>3</v>
@@ -2749,11 +2749,11 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>lander Windels</t>
+          <t>Tristan Snoep</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1298</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>49.92</v>
       </c>
       <c r="J63" t="n">
         <v>3</v>
@@ -2786,15 +2786,15 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Constantinos Mavroudis</t>
+          <t>lander Windels</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -2806,16 +2806,16 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>1681</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>37.36</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
@@ -2827,11 +2827,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Burger Peach</t>
+          <t>Constantinos Mavroudis</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -2843,16 +2843,16 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1115</v>
+        <v>1681</v>
       </c>
       <c r="H65" t="n">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="I65" t="n">
-        <v>46.46</v>
+        <v>37.36</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -2860,11 +2860,11 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Kristof De Smedt 🇧🇪</t>
+          <t>Burger Peach</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -2880,13 +2880,13 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>1340</v>
+        <v>1115</v>
       </c>
       <c r="H66" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I66" t="n">
-        <v>58.26</v>
+        <v>46.46</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -2897,7 +2897,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>

--- a/totaalstand_EAL1_EAL8.xlsx
+++ b/totaalstand_EAL1_EAL8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,31 +500,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>47290</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2301</v>
+      </c>
+      <c r="I2" t="n">
+        <v>61.66</v>
+      </c>
+      <c r="J2" t="n">
+        <v>74</v>
+      </c>
+      <c r="K2" t="n">
         <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>35892</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1770</v>
-      </c>
-      <c r="I2" t="n">
-        <v>60.83</v>
-      </c>
-      <c r="J2" t="n">
-        <v>56</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -549,16 +549,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>27944</v>
+        <v>30092</v>
       </c>
       <c r="H3" t="n">
-        <v>1217</v>
+        <v>1318</v>
       </c>
       <c r="I3" t="n">
-        <v>68.88</v>
+        <v>68.48999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -570,35 +570,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kai 123</t>
+          <t>Travisberg Bergado</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>19934</v>
+        <v>25358</v>
       </c>
       <c r="H4" t="n">
-        <v>872</v>
+        <v>1135</v>
       </c>
       <c r="I4" t="n">
-        <v>68.58</v>
+        <v>67.03</v>
       </c>
       <c r="J4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -607,35 +607,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Louis Tweddle</t>
+          <t>Kai 123</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>19934</v>
+      </c>
+      <c r="H5" t="n">
+        <v>872</v>
+      </c>
+      <c r="I5" t="n">
+        <v>68.58</v>
+      </c>
+      <c r="J5" t="n">
+        <v>40</v>
+      </c>
+      <c r="K5" t="n">
         <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>21529</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1087</v>
-      </c>
-      <c r="I5" t="n">
-        <v>59.42</v>
-      </c>
-      <c r="J5" t="n">
-        <v>36</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -644,35 +644,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Travisberg Bergado</t>
+          <t>Martin Gordon</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>16725</v>
+        <v>28440</v>
       </c>
       <c r="H6" t="n">
-        <v>757</v>
+        <v>1624</v>
       </c>
       <c r="I6" t="n">
-        <v>66.28</v>
+        <v>52.54</v>
       </c>
       <c r="J6" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -681,32 +681,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Thomas Maidment</t>
+          <t>Louis Tweddle</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>16829</v>
+        <v>21529</v>
       </c>
       <c r="H7" t="n">
-        <v>861</v>
+        <v>1087</v>
       </c>
       <c r="I7" t="n">
-        <v>58.64</v>
+        <v>59.42</v>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -718,11 +718,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Martin Gordon</t>
+          <t>Yannick den Daggelder</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -734,16 +734,16 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>21522</v>
+        <v>22011</v>
       </c>
       <c r="H8" t="n">
-        <v>1227</v>
+        <v>1256</v>
       </c>
       <c r="I8" t="n">
-        <v>52.62</v>
+        <v>52.57</v>
       </c>
       <c r="J8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -755,32 +755,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Yannick den Daggelder</t>
+          <t>Thomas Maidment</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>28</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>17599</v>
+        <v>16829</v>
       </c>
       <c r="H9" t="n">
-        <v>1042</v>
+        <v>861</v>
       </c>
       <c r="I9" t="n">
-        <v>50.67</v>
+        <v>58.64</v>
       </c>
       <c r="J9" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -788,76 +788,76 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Richie Ijzermans</t>
+          <t>Robin Willis</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>9771</v>
+        <v>15731</v>
       </c>
       <c r="H10" t="n">
-        <v>458</v>
+        <v>990</v>
       </c>
       <c r="I10" t="n">
-        <v>64</v>
+        <v>47.67</v>
       </c>
       <c r="J10" t="n">
         <v>28</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Rocky Van Den Eeckhoudt</t>
+          <t>Richie Ijzermans</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9771</v>
+      </c>
+      <c r="H11" t="n">
+        <v>458</v>
+      </c>
+      <c r="I11" t="n">
+        <v>64</v>
+      </c>
+      <c r="J11" t="n">
+        <v>28</v>
+      </c>
+      <c r="K11" t="n">
         <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="n">
-        <v>18938</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1016</v>
-      </c>
-      <c r="I11" t="n">
-        <v>55.92</v>
-      </c>
-      <c r="J11" t="n">
-        <v>26</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -866,7 +866,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Robin Willis</t>
+          <t>Rocky Van Den Eeckhoudt</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -876,22 +876,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>13858</v>
+        <v>18938</v>
       </c>
       <c r="H12" t="n">
-        <v>872</v>
+        <v>1016</v>
       </c>
       <c r="I12" t="n">
-        <v>47.68</v>
+        <v>55.92</v>
       </c>
       <c r="J12" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -903,14 +903,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nick Fitzpatrick</t>
+          <t>Ronald Kelly</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -919,16 +919,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>14467</v>
+        <v>19491</v>
       </c>
       <c r="H13" t="n">
-        <v>679</v>
+        <v>1079</v>
       </c>
       <c r="I13" t="n">
-        <v>63.92</v>
+        <v>54.19</v>
       </c>
       <c r="J13" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -936,18 +936,18 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ronald Kelly</t>
+          <t>Nick Fitzpatrick</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>23</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>17238</v>
+        <v>14467</v>
       </c>
       <c r="H14" t="n">
-        <v>949</v>
+        <v>679</v>
       </c>
       <c r="I14" t="n">
-        <v>54.49</v>
+        <v>63.92</v>
       </c>
       <c r="J14" t="n">
         <v>23</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Steve Deavs</t>
+          <t>Noah B</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>11105</v>
+        <v>14876</v>
       </c>
       <c r="H17" t="n">
-        <v>724</v>
+        <v>887</v>
       </c>
       <c r="I17" t="n">
-        <v>46.02</v>
+        <v>50.31</v>
       </c>
       <c r="J17" t="n">
         <v>21</v>
@@ -1084,36 +1084,36 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dan Roussel</t>
+          <t>Steve Deavs</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>11646</v>
+        <v>11105</v>
       </c>
       <c r="H18" t="n">
-        <v>659</v>
+        <v>724</v>
       </c>
       <c r="I18" t="n">
-        <v>53.02</v>
+        <v>46.02</v>
       </c>
       <c r="J18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1125,32 +1125,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Jack Davies</t>
+          <t>Dan Roussel</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>11884</v>
+        <v>11646</v>
       </c>
       <c r="H19" t="n">
-        <v>600</v>
+        <v>659</v>
       </c>
       <c r="I19" t="n">
-        <v>59.42</v>
+        <v>53.02</v>
       </c>
       <c r="J19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1162,11 +1162,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Troy Davies</t>
+          <t>Jack Davies</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>10563</v>
+        <v>13467</v>
       </c>
       <c r="H20" t="n">
-        <v>488</v>
+        <v>692</v>
       </c>
       <c r="I20" t="n">
-        <v>64.94</v>
+        <v>58.38</v>
       </c>
       <c r="J20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Noah B</t>
+          <t>Arnold Van Der Vlies</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1212,19 +1212,19 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>13049</v>
+        <v>13498</v>
       </c>
       <c r="H21" t="n">
-        <v>782</v>
+        <v>837</v>
       </c>
       <c r="I21" t="n">
-        <v>50.06</v>
+        <v>48.38</v>
       </c>
       <c r="J21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1236,72 +1236,72 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nico van Assche</t>
+          <t>Troy Davies</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>11287</v>
+        <v>10563</v>
       </c>
       <c r="H22" t="n">
-        <v>635</v>
+        <v>488</v>
       </c>
       <c r="I22" t="n">
-        <v>53.32</v>
+        <v>64.94</v>
       </c>
       <c r="J22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Arnold Van Der Vlies</t>
+          <t>Nico van Assche</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>11817</v>
+        <v>11287</v>
       </c>
       <c r="H23" t="n">
-        <v>716</v>
+        <v>635</v>
       </c>
       <c r="I23" t="n">
-        <v>49.51</v>
+        <v>53.32</v>
       </c>
       <c r="J23" t="n">
         <v>18</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Roy Droog</t>
+          <t>Lukas G</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1326,13 +1326,13 @@
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>8025</v>
+        <v>9610</v>
       </c>
       <c r="H24" t="n">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="I24" t="n">
-        <v>51.89</v>
+        <v>61.6</v>
       </c>
       <c r="J24" t="n">
         <v>16</v>
@@ -1347,11 +1347,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Biagio VDS</t>
+          <t>Roy Droog</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1360,16 +1360,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>9043</v>
+        <v>8025</v>
       </c>
       <c r="H25" t="n">
-        <v>398</v>
+        <v>464</v>
       </c>
       <c r="I25" t="n">
-        <v>68.16</v>
+        <v>51.89</v>
       </c>
       <c r="J25" t="n">
         <v>16</v>
@@ -1380,36 +1380,36 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Luke Fry</t>
+          <t>Biagio VDS</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>14</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>2</v>
       </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
-        <v>8727</v>
+        <v>9043</v>
       </c>
       <c r="H26" t="n">
-        <v>519</v>
+        <v>398</v>
       </c>
       <c r="I26" t="n">
-        <v>50.45</v>
+        <v>68.16</v>
       </c>
       <c r="J26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1417,11 +1417,11 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Diego Meerveld</t>
+          <t>Blanko B</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1431,19 +1431,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>10847</v>
+        <v>12824</v>
       </c>
       <c r="H27" t="n">
-        <v>596</v>
+        <v>719</v>
       </c>
       <c r="I27" t="n">
-        <v>54.6</v>
+        <v>53.51</v>
       </c>
       <c r="J27" t="n">
         <v>15</v>
@@ -1454,33 +1454,33 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ben Roberts</t>
+          <t>Luke Fry</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>7705</v>
+        <v>8727</v>
       </c>
       <c r="H28" t="n">
-        <v>437</v>
+        <v>519</v>
       </c>
       <c r="I28" t="n">
-        <v>52.89</v>
+        <v>50.45</v>
       </c>
       <c r="J28" t="n">
         <v>15</v>
@@ -1491,33 +1491,33 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Mick Woo</t>
+          <t>Diego Meerveld</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>11082</v>
+        <v>10847</v>
       </c>
       <c r="H29" t="n">
-        <v>564</v>
+        <v>596</v>
       </c>
       <c r="I29" t="n">
-        <v>58.95</v>
+        <v>54.6</v>
       </c>
       <c r="J29" t="n">
         <v>15</v>
@@ -1528,11 +1528,11 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Coekie Sr</t>
+          <t>Ben Roberts</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1542,22 +1542,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>8589</v>
+        <v>7705</v>
       </c>
       <c r="H30" t="n">
-        <v>478</v>
+        <v>437</v>
       </c>
       <c r="I30" t="n">
-        <v>53.91</v>
+        <v>52.89</v>
       </c>
       <c r="J30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -1565,36 +1565,36 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>John Rey Mendez</t>
+          <t>Mick Woo</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>12282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>58.49</v>
       </c>
       <c r="J31" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -1606,11 +1606,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ewan Taylor</t>
+          <t>Coekie Sr</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1622,16 +1622,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>6391</v>
+        <v>8589</v>
       </c>
       <c r="H32" t="n">
-        <v>337</v>
+        <v>478</v>
       </c>
       <c r="I32" t="n">
-        <v>56.89</v>
+        <v>53.91</v>
       </c>
       <c r="J32" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -1639,15 +1639,15 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Steve Harris</t>
+          <t>John Rey Mendez</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1659,16 +1659,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>4401</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>45.84</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -1676,33 +1676,33 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Djo Descan</t>
+          <t>Ewan Taylor</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>5920</v>
+        <v>6391</v>
       </c>
       <c r="H34" t="n">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="I34" t="n">
-        <v>59.6</v>
+        <v>56.89</v>
       </c>
       <c r="J34" t="n">
         <v>11</v>
@@ -1713,15 +1713,15 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Blanko B</t>
+          <t>Steve Harris</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>8056</v>
+        <v>4401</v>
       </c>
       <c r="H35" t="n">
-        <v>446</v>
+        <v>288</v>
       </c>
       <c r="I35" t="n">
-        <v>54.19</v>
+        <v>45.84</v>
       </c>
       <c r="J35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -1750,36 +1750,36 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Dávid Martin Kilian</t>
+          <t>Djo Descan</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1776</v>
+        <v>5920</v>
       </c>
       <c r="H36" t="n">
-        <v>92</v>
+        <v>298</v>
       </c>
       <c r="I36" t="n">
-        <v>57.91</v>
+        <v>59.6</v>
       </c>
       <c r="J36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -1787,11 +1787,11 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>wesley Danen</t>
+          <t>Dávid Martin Kilian</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1807,13 +1807,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>3915</v>
+        <v>1776</v>
       </c>
       <c r="H37" t="n">
-        <v>265</v>
+        <v>92</v>
       </c>
       <c r="I37" t="n">
-        <v>44.32</v>
+        <v>57.91</v>
       </c>
       <c r="J37" t="n">
         <v>10</v>
@@ -1824,15 +1824,15 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Jayden Pieters</t>
+          <t>wesley Danen</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -1844,16 +1844,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4380</v>
+        <v>3915</v>
       </c>
       <c r="H38" t="n">
-        <v>314</v>
+        <v>265</v>
       </c>
       <c r="I38" t="n">
-        <v>41.85</v>
+        <v>44.32</v>
       </c>
       <c r="J38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -1861,11 +1861,11 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Judben Cabs</t>
+          <t>Jayden Pieters</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1881,13 +1881,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2273</v>
+        <v>4380</v>
       </c>
       <c r="H39" t="n">
-        <v>153</v>
+        <v>314</v>
       </c>
       <c r="I39" t="n">
-        <v>44.57</v>
+        <v>41.85</v>
       </c>
       <c r="J39" t="n">
         <v>9</v>
@@ -1898,11 +1898,11 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Lorenz Linkesch</t>
+          <t>Judben Cabs</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1918,13 +1918,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>3236</v>
+        <v>2273</v>
       </c>
       <c r="H40" t="n">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="I40" t="n">
-        <v>54.54</v>
+        <v>44.57</v>
       </c>
       <c r="J40" t="n">
         <v>9</v>
@@ -1935,11 +1935,11 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Niels van Dommelen</t>
+          <t>Lorenz Linkesch</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1955,13 +1955,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5010</v>
+        <v>3236</v>
       </c>
       <c r="H41" t="n">
-        <v>320</v>
+        <v>178</v>
       </c>
       <c r="I41" t="n">
-        <v>46.97</v>
+        <v>54.54</v>
       </c>
       <c r="J41" t="n">
         <v>9</v>
@@ -1972,15 +1972,15 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Jimmy Verdier</t>
+          <t>Niels van Dommelen</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1992,16 +1992,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>6325</v>
+        <v>5010</v>
       </c>
       <c r="H42" t="n">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I42" t="n">
-        <v>58.56</v>
+        <v>46.97</v>
       </c>
       <c r="J42" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -2009,11 +2009,11 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Kevin Verbruggen</t>
+          <t>Jimmy Verdier</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -2029,13 +2029,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>5014</v>
+        <v>6325</v>
       </c>
       <c r="H43" t="n">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="I43" t="n">
-        <v>45.72</v>
+        <v>58.56</v>
       </c>
       <c r="J43" t="n">
         <v>7</v>
@@ -2046,11 +2046,11 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Tommy Ollerenshaw</t>
+          <t>Kevin Verbruggen</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -2066,13 +2066,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1841</v>
+        <v>5014</v>
       </c>
       <c r="H44" t="n">
-        <v>132</v>
+        <v>329</v>
       </c>
       <c r="I44" t="n">
-        <v>41.84</v>
+        <v>45.72</v>
       </c>
       <c r="J44" t="n">
         <v>7</v>
@@ -2083,33 +2083,33 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Kristof De Smedt 🇧🇪</t>
+          <t>Tommy Ollerenshaw</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>6956</v>
+        <v>1841</v>
       </c>
       <c r="H45" t="n">
-        <v>399</v>
+        <v>132</v>
       </c>
       <c r="I45" t="n">
-        <v>52.3</v>
+        <v>41.84</v>
       </c>
       <c r="J45" t="n">
         <v>7</v>
@@ -2120,11 +2120,11 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Erwin Theunis</t>
+          <t>Kristof De Smedt 🇧🇪</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>4866</v>
+        <v>6956</v>
       </c>
       <c r="H46" t="n">
-        <v>251</v>
+        <v>399</v>
       </c>
       <c r="I46" t="n">
-        <v>58.16</v>
+        <v>52.3</v>
       </c>
       <c r="J46" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -2157,11 +2157,11 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Koert Senden</t>
+          <t>Erwin Theunis</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2177,13 +2177,13 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>4484</v>
+        <v>4866</v>
       </c>
       <c r="H47" t="n">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="I47" t="n">
-        <v>50.76</v>
+        <v>58.16</v>
       </c>
       <c r="J47" t="n">
         <v>6</v>
@@ -2194,15 +2194,15 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ben Klerks</t>
+          <t>Koert Senden</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -2214,16 +2214,16 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>2479</v>
+        <v>4484</v>
       </c>
       <c r="H48" t="n">
-        <v>173</v>
+        <v>265</v>
       </c>
       <c r="I48" t="n">
-        <v>42.99</v>
+        <v>50.76</v>
       </c>
       <c r="J48" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -2231,11 +2231,11 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Fredrik P</t>
+          <t>Ben Klerks</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>2346</v>
+        <v>2479</v>
       </c>
       <c r="H49" t="n">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="I49" t="n">
-        <v>48.21</v>
+        <v>42.99</v>
       </c>
       <c r="J49" t="n">
         <v>5</v>
@@ -2268,11 +2268,11 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Maarten Tack</t>
+          <t>Fredrik P</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2288,13 +2288,13 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>3244</v>
+        <v>2346</v>
       </c>
       <c r="H50" t="n">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="I50" t="n">
-        <v>47.01</v>
+        <v>48.21</v>
       </c>
       <c r="J50" t="n">
         <v>5</v>
@@ -2305,11 +2305,11 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>simon Banks</t>
+          <t>Maarten Tack</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -2325,13 +2325,13 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>3799</v>
+        <v>3244</v>
       </c>
       <c r="H51" t="n">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="I51" t="n">
-        <v>49.55</v>
+        <v>47.01</v>
       </c>
       <c r="J51" t="n">
         <v>5</v>
@@ -2342,33 +2342,33 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Joel P</t>
+          <t>simon Banks</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>3376</v>
+        <v>3799</v>
       </c>
       <c r="H52" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="I52" t="n">
-        <v>59.58</v>
+        <v>49.55</v>
       </c>
       <c r="J52" t="n">
         <v>5</v>
@@ -2379,11 +2379,11 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>James Denton</t>
+          <t>Joel P</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -2393,22 +2393,22 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1704</v>
+        <v>3376</v>
       </c>
       <c r="H53" t="n">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="I53" t="n">
-        <v>58.09</v>
+        <v>59.58</v>
       </c>
       <c r="J53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -2416,11 +2416,11 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Rudi Tolleneer</t>
+          <t>James Denton</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2436,13 +2436,13 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>1745</v>
+        <v>1704</v>
       </c>
       <c r="H54" t="n">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="I54" t="n">
-        <v>48.03</v>
+        <v>58.09</v>
       </c>
       <c r="J54" t="n">
         <v>4</v>
@@ -2453,11 +2453,11 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Thomas Hillman</t>
+          <t>Rudi Tolleneer</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -2473,13 +2473,13 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>4136</v>
+        <v>1745</v>
       </c>
       <c r="H55" t="n">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c r="I55" t="n">
-        <v>53.71</v>
+        <v>48.03</v>
       </c>
       <c r="J55" t="n">
         <v>4</v>
@@ -2490,15 +2490,15 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Aelbrecht Wesley</t>
+          <t>Thomas Hillman</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -2510,16 +2510,16 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>1231</v>
+        <v>4136</v>
       </c>
       <c r="H56" t="n">
-        <v>93</v>
+        <v>231</v>
       </c>
       <c r="I56" t="n">
-        <v>39.71</v>
+        <v>53.71</v>
       </c>
       <c r="J56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -2527,11 +2527,11 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>David Wallam</t>
+          <t>Aelbrecht Wesley</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -2547,13 +2547,13 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>1299</v>
+        <v>1231</v>
       </c>
       <c r="H57" t="n">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I57" t="n">
-        <v>36.08</v>
+        <v>39.71</v>
       </c>
       <c r="J57" t="n">
         <v>3</v>
@@ -2564,11 +2564,11 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Kai Schubert</t>
+          <t>David Wallam</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -2584,13 +2584,13 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>1170</v>
+        <v>1299</v>
       </c>
       <c r="H58" t="n">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="I58" t="n">
-        <v>55.71</v>
+        <v>36.08</v>
       </c>
       <c r="J58" t="n">
         <v>3</v>
@@ -2601,11 +2601,11 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Levi Giethoorn</t>
+          <t>Kai Schubert</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -2621,13 +2621,13 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1170</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>55.71</v>
       </c>
       <c r="J59" t="n">
         <v>3</v>
@@ -2638,11 +2638,11 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Martijn Joostema</t>
+          <t>Levi Giethoorn</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2658,13 +2658,13 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>1305</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
         <v>3</v>
@@ -2675,11 +2675,11 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Robbert Taal</t>
+          <t>Martijn Joostema</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -2695,13 +2695,13 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>1970</v>
+        <v>1305</v>
       </c>
       <c r="H61" t="n">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="I61" t="n">
-        <v>46.17</v>
+        <v>52.2</v>
       </c>
       <c r="J61" t="n">
         <v>3</v>
@@ -2712,11 +2712,11 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Toerist G</t>
+          <t>Robbert Taal</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -2732,13 +2732,13 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>1293</v>
+        <v>1970</v>
       </c>
       <c r="H62" t="n">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="I62" t="n">
-        <v>36.94</v>
+        <v>46.17</v>
       </c>
       <c r="J62" t="n">
         <v>3</v>
@@ -2749,11 +2749,11 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Tristan Snoep</t>
+          <t>Toerist G</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="H63" t="n">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="I63" t="n">
-        <v>49.92</v>
+        <v>36.94</v>
       </c>
       <c r="J63" t="n">
         <v>3</v>
@@ -2786,11 +2786,11 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>lander Windels</t>
+          <t>Tristan Snoep</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1298</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>49.92</v>
       </c>
       <c r="J64" t="n">
         <v>3</v>
@@ -2823,15 +2823,15 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Constantinos Mavroudis</t>
+          <t>lander Windels</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -2843,16 +2843,16 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1681</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>37.36</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -2864,11 +2864,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Burger Peach</t>
+          <t>Constantinos Mavroudis</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -2880,16 +2880,16 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>1115</v>
+        <v>1681</v>
       </c>
       <c r="H66" t="n">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="I66" t="n">
-        <v>46.46</v>
+        <v>37.36</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -2897,11 +2897,11 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Max Van Gasse</t>
+          <t>Burger Peach</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -2917,13 +2917,13 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>903</v>
+        <v>1115</v>
       </c>
       <c r="H67" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I67" t="n">
-        <v>41.05</v>
+        <v>46.46</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -2934,11 +2934,11 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Michel Buurmeijer</t>
+          <t>Max Van Gasse</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -2954,13 +2954,13 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="H68" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="I68" t="n">
-        <v>50.94</v>
+        <v>41.05</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -2971,11 +2971,11 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Roosje L</t>
+          <t>Michel Buurmeijer</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -2991,13 +2991,13 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>1237</v>
+        <v>917</v>
       </c>
       <c r="H69" t="n">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="I69" t="n">
-        <v>38.66</v>
+        <v>50.94</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -3008,11 +3008,11 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Solly Aouimeur</t>
+          <t>Noel Buck</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -3028,13 +3028,13 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>1041</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>43.38</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -3045,38 +3045,112 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
+          <t>Roosje L</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1237</v>
+      </c>
+      <c r="H71" t="n">
+        <v>96</v>
+      </c>
+      <c r="I71" t="n">
+        <v>38.66</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>66</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Solly Aouimeur</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1041</v>
+      </c>
+      <c r="H72" t="n">
+        <v>72</v>
+      </c>
+      <c r="I72" t="n">
+        <v>43.38</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>66</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
           <t>zakaria L</t>
         </is>
       </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
         <v>1251</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H73" t="n">
         <v>78</v>
       </c>
-      <c r="I71" t="n">
+      <c r="I73" t="n">
         <v>48.12</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="n">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
         <v>0</v>
       </c>
     </row>
